--- a/papers.xlsx
+++ b/papers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Grady\Documents\website_catherine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Catherine\Documents\website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB122946-1F00-4D9B-A86F-F8BE746C3BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E27DE16-EABE-4082-8D2D-28CFAE3FA07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{97D96D2E-9D3E-43F7-890C-EE13786D0DA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{97D96D2E-9D3E-43F7-890C-EE13786D0DA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Working Papers" sheetId="1" r:id="rId1"/>
@@ -79,13 +79,13 @@
     <t>Investing in Vaccines to Mitigate Harm from COVID-19 and Future Pandemics</t>
   </si>
   <si>
-    <t>with Rachel Glennerster, Sarrin M. Chethik, Claire T. McMahon &amp; Christopher M. Snyder</t>
-  </si>
-  <si>
     <t>Are two monopolists better than one? Countervailing market power in prescription drug pricing</t>
   </si>
   <si>
     <t>In the US prescription drug market, there is a growing gap between the price that drug manufacturers set and what they actually receive. This gap is often attributed to the middlemen, called pharmacy benefit managers (PBMs), who are responsible for negotiating confidential discounts on behalf of insurers. One consequence of this growing gap is what consumers may pay in cost-sharing (co-pay or co-insurance), which are indexed to list price, has been growing faster than the net-of-rebate price received by drug manufacturers. This suggests the potential for welfare losses due to a “doubly” marked-up list price: one mark-up by the drug manufacturer and another by the PBM. In this project, I estimate a vertical model of rebate negotiation and drug price setting and use it to assess the drivers of recent pricing patterns, as well as shed light on the role of the PBMs. I find that whether PBMs are welfare enhancing or degrading depends on what the alternative is. Relative to a counterfactual where drug manufacturers set and receive the monopoly price, PBMs can indeed provide a “countervailing” market force that benefits consumers and insurers. However, relative to a counterfactual where the government negotiates prices directly, as Medicare has started to do recently, PBMs do not provide welfare improvements.</t>
+  </si>
+  <si>
+    <t>with Rachel Glennerster, Sarrin M. Chethik, Claire T. McMahon and Christopher M. Snyder</t>
   </si>
 </sst>
 </file>
@@ -476,19 +476,19 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="28.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="145" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -519,12 +519,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>11</v>
@@ -550,16 +550,16 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="28.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -589,16 +589,16 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="38.54296875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7265625" style="1"/>
+    <col min="1" max="1" width="28.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="32.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="38.5703125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -615,15 +615,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
